--- a/table/Datas/global.xlsx
+++ b/table/Datas/global.xlsx
@@ -5,13 +5,13 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="牌型" sheetId="1" r:id="rId4"/>
+    <sheet name="全局" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>##column##var</t>
   </si>
@@ -35,7 +35,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>http://cloud.turbo.org.cn</t>
@@ -47,6 +47,15 @@
   <si>
     <t>int</t>
   </si>
+  <si>
+    <t>initial_dialogues</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
+  </si>
+  <si>
+    <t>1,4,5,6</t>
+  </si>
 </sst>
 </file>
 
@@ -55,14 +64,14 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -72,26 +81,27 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="10"/>
-      <color indexed="10"/>
+      <color indexed="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -101,16 +111,103 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -120,20 +217,47 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -153,8 +277,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -307,7 +433,7 @@
           <a:effectLst>
             <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -387,7 +513,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -414,10 +540,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -666,7 +792,7 @@
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -944,7 +1070,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -971,10 +1097,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1216,21 +1342,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.67188" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.67188" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.67188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.9062" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.1" customHeight="1">
+    <row r="1" ht="12.9" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1245,7 +1371,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="13.1" customHeight="1">
+    <row r="2" ht="12.9" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1265,7 +1391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="13.1" customHeight="1">
+    <row r="4" ht="12.9" customHeight="1">
       <c r="A4" t="s" s="2">
         <v>7</v>
       </c>
@@ -1278,6 +1404,54 @@
         <v>20100</v>
       </c>
     </row>
+    <row r="5" ht="12.9" customHeight="1">
+      <c r="A5" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" location="" tooltip="" display="http://cloud.turbo.org.cn"/>
@@ -1285,7 +1459,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/table/Datas/global.xlsx
+++ b/table/Datas/global.xlsx
@@ -5,13 +5,13 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="牌型" sheetId="1" r:id="rId4"/>
+    <sheet name="全局" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>##column##var</t>
   </si>
@@ -47,6 +47,15 @@
   <si>
     <t>int</t>
   </si>
+  <si>
+    <t>initial_dialogues</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
 </sst>
 </file>
 
@@ -55,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -68,11 +77,6 @@
     </font>
     <font>
       <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -127,13 +131,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -307,7 +311,7 @@
           <a:effectLst>
             <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -387,7 +391,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -414,10 +418,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -666,7 +670,7 @@
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -944,7 +948,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -971,10 +975,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1216,21 +1220,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.67188" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.67188" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.67188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.9062" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.1" customHeight="1">
+    <row r="1" ht="12.9" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1245,7 +1249,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="13.1" customHeight="1">
+    <row r="2" ht="12.9" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1265,7 +1269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="13.1" customHeight="1">
+    <row r="4" ht="12.9" customHeight="1">
       <c r="A4" t="s" s="2">
         <v>7</v>
       </c>
@@ -1276,6 +1280,19 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>20100</v>
+      </c>
+    </row>
+    <row r="5" ht="12.9" customHeight="1">
+      <c r="A5" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" t="s" s="2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/table/Datas/global.xlsx
+++ b/table/Datas/global.xlsx
@@ -35,7 +35,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>http://cloud.turbo.org.cn</t>
@@ -54,7 +54,7 @@
     <t>(list#sep=,),int</t>
   </si>
   <si>
-    <t>1,5</t>
+    <t>1,4,5,6</t>
   </si>
 </sst>
 </file>
@@ -71,7 +71,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -83,19 +83,25 @@
     <font>
       <u val="single"/>
       <sz val="10"/>
-      <color indexed="10"/>
+      <color indexed="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -105,16 +111,103 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -124,20 +217,47 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -157,8 +277,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1220,7 +1342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1295,6 +1417,41 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" location="" tooltip="" display="http://cloud.turbo.org.cn"/>
@@ -1302,7 +1459,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>